--- a/biology/Histoire de la zoologie et de la botanique/Deborah_Gordon/Deborah_Gordon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Deborah_Gordon/Deborah_Gordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deborah M. Gordon, née le 30 décembre 1955, est une biologiste de l’université Stanford spécialisée dans l'étude des fourmis.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deborah Gordon est docteur en zoologie de l'université Duke (diplômée en 1983), titulaire d'une maîtrise universitaire ès sciences en biologie de l’Université Stanford (diplômée en 1977).
 </t>
@@ -542,11 +556,13 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1995, Deborah Gordon a reçu une récompense Phi Beta Kappa.
 En 2001, elle a obtenu une bourse Guggenheim.
-En 2003, elle a été invitée à une conférence TED[1].</t>
+En 2003, elle a été invitée à une conférence TED.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Domaine de recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa principale recherche porte sur l'intelligence collective des fourmis rouges moissonneuses et constate que :
 « la moitié de la colonie ne fait rien » et seulement 25 % des fourmis travaillent hors de la fourmilière, ce qui leur confère des aptitudes supérieures de communication via les phéromones émises par leurs antennes ;
@@ -582,7 +600,7 @@
 l’allocation des tâches change en fonction de l’âge de la colonie : les fourmis d’une colonie « jeune » ont des tâches plus variées que celles d'une « vieille » ;
 environ cinq générations de fourmis sont nécessaires pour atteindre une colonie de 10 000 individus, nombre qui reste stable au bout de 5 ans, et déclenche la fondation d’autres colonies ;
 la colonie disparaît avec la mort des reproductrices au bout 15 à 20 ans.
-Fort de ces observations, Gordon imagine des algorithmes similaires pour les réseaux élargis existant chez d'autres espèces[2], notamment sur la taille nécessaire pour procéder à un essaimage.
+Fort de ces observations, Gordon imagine des algorithmes similaires pour les réseaux élargis existant chez d'autres espèces, notamment sur la taille nécessaire pour procéder à un essaimage.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Deborah M. Gordon, Ants at Work : How An Insect Society Is Organized, 2000, 182 p. (ISBN 0-393-32132-0)
 (en) Deborah M. Gordon, Ant Encounters : interaction networks and colony behavior, Princeton, Princeton University Press, 2010, 167 p. (ISBN 978-0-691-13879-4 et 0-691-13879-6)</t>
